--- a/dataset/task_sheet_answers_v2/XYScatterPlot/9_XYScatterPlot/9_XYScatterPlot_gt2.xlsx
+++ b/dataset/task_sheet_answers_v2/XYScatterPlot/9_XYScatterPlot/9_XYScatterPlot_gt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MAC\Home\Downloads\workspace\output_dataset_512\220_XYScatterPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\XYScatterPlot\9_XYScatterPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5B6791-B076-4526-8853-57E18DC6E785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7B9D1-127A-4FF9-BFBD-E2839A38A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3278" yWindow="3278" windowWidth="21599" windowHeight="11332" xr2:uid="{1AA3E20A-4573-462D-AAB1-231740041C4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AA3E20A-4573-462D-AAB1-231740041C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +89,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -98,8 +98,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{38D99CF2-7FF9-46B0-81DA-2CBB85B57935}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{49B3A928-F1D0-4994-A440-D70CAB012248}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -415,8 +415,17 @@
           <c:tx>
             <c:v>Height (m)</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
           </c:marker>
           <c:cat>
@@ -779,7 +788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,14 +1090,14 @@
       <selection sqref="A1:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.5</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.5</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12.5</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17.5</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22.5</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27.5</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32.5</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37.5</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>42.5</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>45</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>47.5</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>52.5</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>57.5</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>62.5</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>65</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>67.5</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>70</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72.5</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>77.5</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>82.5</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>85</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>87.5</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>90</v>
       </c>
